--- a/trunk/EnhancedMorseDecoder/EMD_PCB_BOM.xlsx
+++ b/trunk/EnhancedMorseDecoder/EMD_PCB_BOM.xlsx
@@ -19,7 +19,7 @@
     <author>Dylan Thorner</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0">
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0">
+    <comment ref="A28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="144">
   <si>
     <t>Reference Designator</t>
   </si>
@@ -291,9 +291,6 @@
     <t>470 kΩ Resistor</t>
   </si>
   <si>
-    <t>CR1</t>
-  </si>
-  <si>
     <t>C10</t>
   </si>
   <si>
@@ -498,6 +495,57 @@
   <si>
     <t>GRM1885C1H360JA01D
 CAP CER 36PF 50V 5% C0G 0603</t>
+  </si>
+  <si>
+    <t>P330GCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ331V
+RES 330 OHM 1/10W 5% 0603 SMD</t>
+  </si>
+  <si>
+    <t>BUY SPARES</t>
+  </si>
+  <si>
+    <t>LED1, LED2</t>
+  </si>
+  <si>
+    <t>P10.0CCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF10R0V
+RES 10.0 OHM 1/8W 1% 0805 SMD</t>
+  </si>
+  <si>
+    <t>445-4040-1-ND</t>
+  </si>
+  <si>
+    <t>C3216X7R1C685K
+CAP CER 6.8UF 16V X7R 10% 1206
+vcap</t>
+  </si>
+  <si>
+    <t>490-1054-1-ND</t>
+  </si>
+  <si>
+    <t>BLM21PG221SN1D
+FERRITE CHIP 220 OHM 2000MA 0805</t>
+  </si>
+  <si>
+    <t>http://www.newark.com/vishay-dale/crcw060310k0fkea/resistor-thick-film-10kohm-100mw/dp/52K8062?Ntt=52K8062</t>
+  </si>
+  <si>
+    <t>52K8062</t>
+  </si>
+  <si>
+    <t>10kΩ Thick Film Resistor
+0603</t>
+  </si>
+  <si>
+    <t>Replace all the the 10k</t>
+  </si>
+  <si>
+    <t>These are backup for R6</t>
   </si>
 </sst>
 </file>
@@ -712,7 +760,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -761,6 +809,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1021,8 +1075,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H32" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:H32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H35" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:H35"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Reference Designator" dataDxfId="9"/>
     <tableColumn id="2" name="Part Number" dataDxfId="8"/>
@@ -1324,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1384,10 +1438,10 @@
     <row r="3" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
       <c r="A3" s="26"/>
       <c r="B3" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>126</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>127</v>
       </c>
       <c r="D3" s="32">
         <v>1</v>
@@ -1398,17 +1452,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="29"/>
+        <v>124</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="4" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
       <c r="A4" s="26"/>
       <c r="B4" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>128</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>129</v>
       </c>
       <c r="D4" s="32">
         <v>2</v>
@@ -1419,347 +1475,349 @@
         <v>0</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="29"/>
+      <c r="H4" s="29" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="32">
+        <v>2</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0.03</v>
+      </c>
       <c r="F5" s="28">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="G5" s="14"/>
-      <c r="H5" s="29"/>
+      <c r="H5" s="29" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
       <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
         <v>0</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="29"/>
+      <c r="H6" s="29" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
       <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1</v>
+      </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
         <v>0</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="H7" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
+        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E11" s="6">
         <v>0.33800000000000002</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F11" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
         <v>1.6900000000000002</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D12" s="1">
         <v>6</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E12" s="6">
         <v>0.27</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F12" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
         <v>1.62</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="F10" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.09</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="F11" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>1.32</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="6">
-        <v>0.47699999999999998</v>
+        <v>0.09</v>
       </c>
       <c r="F13" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.95399999999999996</v>
+        <v>0.09</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>28</v>
+        <v>83</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
+      <c r="A14" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="6">
-        <v>8.6999999999999994E-2</v>
+        <v>0.33</v>
       </c>
       <c r="F14" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>8.6999999999999994E-2</v>
+        <v>1.32</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="A15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="6">
-        <v>4.4999999999999998E-2</v>
-      </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="12" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="18" t="s">
-        <v>46</v>
+      <c r="A16" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="6">
-        <v>0.1</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="F16" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.1</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>76</v>
+        <v>19</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="6">
-        <v>1.84</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F17" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>1.84</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="18" t="s">
-        <v>48</v>
+      <c r="A18" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="6">
-        <v>0.1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F18" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
+        <v>46</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1772,48 +1830,48 @@
         <v>0.1</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="18" t="s">
-        <v>52</v>
+      <c r="A20" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="6">
-        <v>0.1</v>
+        <v>1.84</v>
       </c>
       <c r="F20" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.1</v>
+        <v>1.84</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -1826,7 +1884,7 @@
         <v>0.2</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>39</v>
@@ -1834,40 +1892,40 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>92</v>
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="6">
-        <v>8.02</v>
+        <v>0.1</v>
       </c>
       <c r="F22" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>8.02</v>
+        <v>0.1</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1880,7 +1938,7 @@
         <v>0.1</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>39</v>
@@ -1888,26 +1946,26 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="6">
         <v>0.1</v>
       </c>
       <c r="F24" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>39</v>
@@ -1915,272 +1973,353 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>116</v>
+        <v>88</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="6">
-        <v>5.7000000000000002E-2</v>
+        <v>8.02</v>
       </c>
       <c r="F25" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>5.7000000000000002E-2</v>
+        <v>8.02</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="6">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="F26" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75">
+        <v>93</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>118</v>
+        <v>59</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="6">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="F27" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>1.7</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>113</v>
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="35.25" customHeight="1">
       <c r="A28" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>73</v>
+        <v>132</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="6">
-        <v>7.24</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F28" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>7.24</v>
+        <v>0.114</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75">
+    <row r="29" spans="1:8">
       <c r="A29" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>119</v>
+        <v>61</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="6">
+        <v>8</v>
+      </c>
+      <c r="F29" s="6">
+        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
+        <v>8</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75">
+      <c r="A30" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
         <v>1.7</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="6">
         <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
         <v>1.7</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="12" t="s">
+      <c r="G30" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>7.24</v>
+      </c>
+      <c r="F31" s="6">
+        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
+        <v>7.24</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75">
+      <c r="A32" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="F32" s="6">
+        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
+        <v>1.7</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="20" t="s">
+      <c r="C33" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="D33" s="20">
+        <v>1</v>
+      </c>
+      <c r="E33" s="24">
+        <v>2.65</v>
+      </c>
+      <c r="F33" s="24">
+        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
+        <v>2.65</v>
+      </c>
+      <c r="G33" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="20">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24">
-        <v>2.65</v>
-      </c>
-      <c r="F30" s="24">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>2.65</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="10" customFormat="1">
-      <c r="A31" s="18" t="s">
+      <c r="H33" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="10" customFormat="1">
+      <c r="A34" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="F34" s="6">
+        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
+        <v>1.04</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="20" t="s">
+      <c r="H34" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="1">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="11">
         <v>2</v>
       </c>
-      <c r="E31" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="F31" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>1.04</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11" t="s">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6">
+        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="11">
-        <v>2</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="21" t="s">
+    </row>
+    <row r="36" spans="1:8" s="10" customFormat="1">
+      <c r="A36" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="11">
+        <v>3</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="F36" s="6">
+        <f>D36*E36</f>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <f>SUM(Table1[Quantity per board])</f>
+        <v>51</v>
+      </c>
+      <c r="F37" s="7">
+        <f>SUM(Table1[Total Price])</f>
+        <v>39.07</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="10" customFormat="1">
-      <c r="A33" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="11">
-        <v>3</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0.99</v>
-      </c>
-      <c r="F33" s="6">
-        <f>D33*E33</f>
-        <v>2.9699999999999998</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <f>SUM(Table1[Quantity per board])</f>
-        <v>45</v>
-      </c>
-      <c r="F34" s="7">
-        <f>SUM(Table1[Total Price])</f>
-        <v>38.953000000000003</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="C39" s="10" t="s">
+    <row r="42" spans="1:8">
+      <c r="C42" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="22" t="s">
-        <v>121</v>
+      <c r="G42" s="22" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="F37">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
@@ -2189,40 +2328,45 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G11" r:id="rId2"/>
-    <hyperlink ref="G13" r:id="rId3"/>
-    <hyperlink ref="G15" r:id="rId4"/>
-    <hyperlink ref="G9" r:id="rId5"/>
-    <hyperlink ref="G14" r:id="rId6"/>
-    <hyperlink ref="G17" r:id="rId7"/>
-    <hyperlink ref="G26" r:id="rId8"/>
-    <hyperlink ref="G28" r:id="rId9"/>
-    <hyperlink ref="G16" r:id="rId10"/>
-    <hyperlink ref="G18" r:id="rId11"/>
-    <hyperlink ref="G20" r:id="rId12"/>
-    <hyperlink ref="G19" r:id="rId13"/>
-    <hyperlink ref="G10" r:id="rId14"/>
-    <hyperlink ref="G21" r:id="rId15"/>
-    <hyperlink ref="G22" r:id="rId16"/>
-    <hyperlink ref="G23" r:id="rId17"/>
-    <hyperlink ref="G24" r:id="rId18"/>
-    <hyperlink ref="G31" r:id="rId19"/>
-    <hyperlink ref="G30" r:id="rId20" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=1016-1309-5-ND"/>
-    <hyperlink ref="G27" r:id="rId21" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=T93XA-50K-ND"/>
-    <hyperlink ref="G29" r:id="rId22" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=T93YA-10K-ND"/>
-    <hyperlink ref="G25" r:id="rId23"/>
-    <hyperlink ref="G39" r:id="rId24" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM4800-ND"/>
-    <hyperlink ref="G33" r:id="rId25" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM4800-ND"/>
+    <hyperlink ref="G11" r:id="rId1"/>
+    <hyperlink ref="G14" r:id="rId2"/>
+    <hyperlink ref="G16" r:id="rId3"/>
+    <hyperlink ref="G18" r:id="rId4"/>
+    <hyperlink ref="G12" r:id="rId5"/>
+    <hyperlink ref="G17" r:id="rId6"/>
+    <hyperlink ref="G20" r:id="rId7"/>
+    <hyperlink ref="G29" r:id="rId8"/>
+    <hyperlink ref="G31" r:id="rId9"/>
+    <hyperlink ref="G19" r:id="rId10"/>
+    <hyperlink ref="G21" r:id="rId11"/>
+    <hyperlink ref="G23" r:id="rId12"/>
+    <hyperlink ref="G22" r:id="rId13"/>
+    <hyperlink ref="G13" r:id="rId14"/>
+    <hyperlink ref="G24" r:id="rId15"/>
+    <hyperlink ref="G25" r:id="rId16"/>
+    <hyperlink ref="G26" r:id="rId17"/>
+    <hyperlink ref="G27" r:id="rId18"/>
+    <hyperlink ref="G34" r:id="rId19"/>
+    <hyperlink ref="G33" r:id="rId20" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=1016-1309-5-ND"/>
+    <hyperlink ref="G30" r:id="rId21" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=T93XA-50K-ND"/>
+    <hyperlink ref="G32" r:id="rId22" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=T93YA-10K-ND"/>
+    <hyperlink ref="G28" r:id="rId23"/>
+    <hyperlink ref="G42" r:id="rId24" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM4800-ND"/>
+    <hyperlink ref="G36" r:id="rId25" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM4800-ND"/>
     <hyperlink ref="G3" r:id="rId26" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=CTX301LVCT-ND"/>
     <hyperlink ref="B4" r:id="rId27" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1416-1-ND"/>
+    <hyperlink ref="B5" r:id="rId28" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P330GCT-ND"/>
+    <hyperlink ref="B6" r:id="rId29" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P10.0CCT-ND"/>
+    <hyperlink ref="B7" r:id="rId30" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=445-4040-1-ND"/>
+    <hyperlink ref="B8" r:id="rId31" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1054-1-ND"/>
+    <hyperlink ref="G9" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="301" verticalDpi="300" r:id="rId28"/>
-  <drawing r:id="rId29"/>
-  <legacyDrawing r:id="rId30"/>
+  <pageSetup orientation="portrait" horizontalDpi="301" verticalDpi="300" r:id="rId33"/>
+  <drawing r:id="rId34"/>
+  <legacyDrawing r:id="rId35"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>
--- a/trunk/EnhancedMorseDecoder/EMD_PCB_BOM.xlsx
+++ b/trunk/EnhancedMorseDecoder/EMD_PCB_BOM.xlsx
@@ -19,7 +19,7 @@
     <author>Dylan Thorner</author>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0">
+    <comment ref="A14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0">
+    <comment ref="A27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
   <si>
     <t>Reference Designator</t>
   </si>
@@ -480,16 +480,6 @@
     <t>2-Pin Vertical Connector, Pitch 0.100</t>
   </si>
   <si>
-    <t>CTX301LVCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X189-ND </t>
-  </si>
-  <si>
-    <t>ECS-80-18-4DN
-CRYSTAL 8.000 MHZ 18PF 49US</t>
-  </si>
-  <si>
     <t>490-1416-1-ND</t>
   </si>
   <si>
@@ -546,6 +536,18 @@
   </si>
   <si>
     <t>These are backup for R6</t>
+  </si>
+  <si>
+    <t>Total to Purchase</t>
+  </si>
+  <si>
+    <t>X1115-ND</t>
+  </si>
+  <si>
+    <t>CRYSTAL 8.000 MHZ 18PF 49US</t>
+  </si>
+  <si>
+    <t>digikey</t>
   </si>
 </sst>
 </file>
@@ -760,7 +762,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -796,16 +798,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -821,7 +819,202 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -846,248 +1039,28 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4" descr="RoHS Replacement">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1647825" y="1200150"/>
-          <a:ext cx="342900" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H35" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:H35"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Reference Designator" dataDxfId="9"/>
-    <tableColumn id="2" name="Part Number" dataDxfId="8"/>
-    <tableColumn id="3" name="Description" dataDxfId="7"/>
-    <tableColumn id="4" name="Quantity per board" dataDxfId="6"/>
-    <tableColumn id="5" name="Price per Piece" dataDxfId="5"/>
-    <tableColumn id="6" name="Total Price" dataDxfId="4">
-      <calculatedColumnFormula>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I34" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I34">
+    <filterColumn colId="5"/>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Reference Designator" dataDxfId="8"/>
+    <tableColumn id="2" name="Part Number" dataDxfId="7"/>
+    <tableColumn id="3" name="Description" dataDxfId="6"/>
+    <tableColumn id="4" name="Quantity per board" dataDxfId="5"/>
+    <tableColumn id="5" name="Price per Piece" dataDxfId="4"/>
+    <tableColumn id="9" name="Total to Purchase" dataDxfId="3"/>
+    <tableColumn id="6" name="Total Price" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Link to vendor website" dataDxfId="3"/>
-    <tableColumn id="8" name="Notes" dataDxfId="2"/>
+    <tableColumn id="7" name="Link to vendor website" dataDxfId="2"/>
+    <tableColumn id="8" name="Notes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1378,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1391,12 +1364,13 @@
     <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="73.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="73.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.25" customHeight="1">
+    <row r="1" spans="1:9" ht="47.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1413,492 +1387,543 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="47.25" customHeight="1">
       <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
+      <c r="B2" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="30">
+        <v>1</v>
+      </c>
+      <c r="E2" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="30">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>4</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" ht="47.25" customHeight="1">
       <c r="A3" s="26"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="30">
+        <v>2</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30">
+        <v>10</v>
+      </c>
+      <c r="G3" s="27">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A4" s="26"/>
+      <c r="B4" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="32">
+      <c r="C4" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="30">
+        <v>2</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="30">
+        <v>20</v>
+      </c>
+      <c r="G4" s="27">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0.6</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="30">
         <v>1</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="32" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="30">
+        <v>20</v>
+      </c>
+      <c r="G5" s="27">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="32">
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A6" s="26"/>
+      <c r="B6" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30">
+        <v>20</v>
+      </c>
+      <c r="G6" s="27">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="30">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30">
+        <v>5</v>
+      </c>
+      <c r="G7" s="27">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="31">
+        <v>20</v>
+      </c>
+      <c r="G8" s="27">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="32">
-        <v>2</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0.03</v>
-      </c>
-      <c r="F5" s="28">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.06</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="E15" s="6">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="32">
-        <v>1</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="32">
-        <v>1</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="10" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="29"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="F11" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>1.6900000000000002</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1">
-        <v>6</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="F12" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>1.62</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="F13" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.09</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="F14" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>1.32</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
       <c r="E16" s="6">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="F16" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="6">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="F17" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="6">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F18" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="18" t="s">
-        <v>46</v>
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="6">
+        <v>1.84</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
         <v>0.1</v>
       </c>
-      <c r="F19" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1">
         <v>1</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1.84</v>
-      </c>
-      <c r="F20" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>1.84</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
       </c>
       <c r="E21" s="6">
         <v>0.1</v>
       </c>
-      <c r="F21" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.2</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
+        <v>52</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1906,107 +1931,111 @@
       <c r="E22" s="6">
         <v>0.1</v>
       </c>
-      <c r="F22" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="12" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="6">
         <v>0.1</v>
       </c>
-      <c r="F23" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="18" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="F24" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.2</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>8.02</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="18" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="6">
-        <v>8.02</v>
-      </c>
-      <c r="F25" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>8.02</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -2014,356 +2043,339 @@
       <c r="E26" s="6">
         <v>0.1</v>
       </c>
-      <c r="F26" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="12" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9" ht="35.25" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>94</v>
+        <v>129</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="F27" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A28" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
       <c r="E28" s="6">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="F28" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0.114</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="6">
-        <v>8</v>
-      </c>
-      <c r="F29" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>8</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75">
+        <v>1.7</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>117</v>
+        <v>65</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="F30" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>1.7</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>7.24</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75">
       <c r="A31" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="6">
-        <v>7.24</v>
-      </c>
-      <c r="F31" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>7.24</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75">
+        <v>1.7</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="1">
+        <v>69</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="20">
         <v>1</v>
       </c>
-      <c r="E32" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="F32" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>1.7</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="E32" s="24">
+        <v>2.65</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="10" customFormat="1">
       <c r="A33" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>109</v>
+        <v>98</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="20">
-        <v>1</v>
-      </c>
-      <c r="E33" s="24">
-        <v>2.65</v>
-      </c>
-      <c r="F33" s="24">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>2.65</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="10" customFormat="1">
-      <c r="A34" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D33" s="1">
         <v>2</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E33" s="6">
         <v>0.52</v>
       </c>
-      <c r="F34" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>1.04</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="I33" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="15" t="s">
+    <row r="34" spans="1:9">
+      <c r="A34" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="11">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Total to Purchase]]</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="10" customFormat="1">
+      <c r="A35" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="C35" s="11" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D35" s="11">
-        <v>2</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6">
-        <f>Table1[[#This Row],[Quantity per board]]*Table1[[#This Row],[Price per Piece]]</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="10" customFormat="1">
-      <c r="A36" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="11">
         <v>3</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E35" s="6">
         <v>0.99</v>
       </c>
-      <c r="F36" s="6">
-        <f>D36*E36</f>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6">
+        <f>D35*E35</f>
         <v>2.9699999999999998</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="H35" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="H36" s="21"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="8" t="s">
+      <c r="I35" s="21"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D37">
+      <c r="D36">
         <f>SUM(Table1[Quantity per board])</f>
         <v>51</v>
       </c>
-      <c r="F37" s="7">
+      <c r="G36" s="7">
         <f>SUM(Table1[Total Price])</f>
-        <v>39.07</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="16" t="s">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="C42" s="10" t="s">
+    <row r="41" spans="1:9">
+      <c r="C41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="H41" s="22" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G11" r:id="rId1"/>
-    <hyperlink ref="G14" r:id="rId2"/>
-    <hyperlink ref="G16" r:id="rId3"/>
-    <hyperlink ref="G18" r:id="rId4"/>
-    <hyperlink ref="G12" r:id="rId5"/>
-    <hyperlink ref="G17" r:id="rId6"/>
-    <hyperlink ref="G20" r:id="rId7"/>
-    <hyperlink ref="G29" r:id="rId8"/>
-    <hyperlink ref="G31" r:id="rId9"/>
-    <hyperlink ref="G19" r:id="rId10"/>
-    <hyperlink ref="G21" r:id="rId11"/>
-    <hyperlink ref="G23" r:id="rId12"/>
-    <hyperlink ref="G22" r:id="rId13"/>
-    <hyperlink ref="G13" r:id="rId14"/>
-    <hyperlink ref="G24" r:id="rId15"/>
-    <hyperlink ref="G25" r:id="rId16"/>
-    <hyperlink ref="G26" r:id="rId17"/>
-    <hyperlink ref="G27" r:id="rId18"/>
-    <hyperlink ref="G34" r:id="rId19"/>
-    <hyperlink ref="G33" r:id="rId20" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=1016-1309-5-ND"/>
-    <hyperlink ref="G30" r:id="rId21" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=T93XA-50K-ND"/>
-    <hyperlink ref="G32" r:id="rId22" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=T93YA-10K-ND"/>
-    <hyperlink ref="G28" r:id="rId23"/>
-    <hyperlink ref="G42" r:id="rId24" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM4800-ND"/>
-    <hyperlink ref="G36" r:id="rId25" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM4800-ND"/>
-    <hyperlink ref="G3" r:id="rId26" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=CTX301LVCT-ND"/>
-    <hyperlink ref="B4" r:id="rId27" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1416-1-ND"/>
-    <hyperlink ref="B5" r:id="rId28" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P330GCT-ND"/>
-    <hyperlink ref="B6" r:id="rId29" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P10.0CCT-ND"/>
-    <hyperlink ref="B7" r:id="rId30" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=445-4040-1-ND"/>
-    <hyperlink ref="B8" r:id="rId31" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1054-1-ND"/>
-    <hyperlink ref="G9" r:id="rId32"/>
+    <hyperlink ref="H10" r:id="rId1"/>
+    <hyperlink ref="H13" r:id="rId2"/>
+    <hyperlink ref="H15" r:id="rId3"/>
+    <hyperlink ref="H17" r:id="rId4"/>
+    <hyperlink ref="H11" r:id="rId5"/>
+    <hyperlink ref="H16" r:id="rId6"/>
+    <hyperlink ref="H19" r:id="rId7"/>
+    <hyperlink ref="H28" r:id="rId8"/>
+    <hyperlink ref="H30" r:id="rId9"/>
+    <hyperlink ref="H18" r:id="rId10"/>
+    <hyperlink ref="H20" r:id="rId11"/>
+    <hyperlink ref="H22" r:id="rId12"/>
+    <hyperlink ref="H21" r:id="rId13"/>
+    <hyperlink ref="H12" r:id="rId14"/>
+    <hyperlink ref="H23" r:id="rId15"/>
+    <hyperlink ref="H24" r:id="rId16"/>
+    <hyperlink ref="H25" r:id="rId17"/>
+    <hyperlink ref="H26" r:id="rId18"/>
+    <hyperlink ref="H33" r:id="rId19"/>
+    <hyperlink ref="H32" r:id="rId20" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=1016-1309-5-ND"/>
+    <hyperlink ref="H29" r:id="rId21" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=T93XA-50K-ND"/>
+    <hyperlink ref="H31" r:id="rId22" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=T93YA-10K-ND"/>
+    <hyperlink ref="H27" r:id="rId23"/>
+    <hyperlink ref="H41" r:id="rId24" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM4800-ND"/>
+    <hyperlink ref="H35" r:id="rId25" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM4800-ND"/>
+    <hyperlink ref="B3" r:id="rId26" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1416-1-ND"/>
+    <hyperlink ref="B4" r:id="rId27" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P330GCT-ND"/>
+    <hyperlink ref="B5" r:id="rId28" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P10.0CCT-ND"/>
+    <hyperlink ref="B6" r:id="rId29" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=445-4040-1-ND"/>
+    <hyperlink ref="B7" r:id="rId30" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1054-1-ND"/>
+    <hyperlink ref="H8" r:id="rId31"/>
+    <hyperlink ref="B2" r:id="rId32"/>
+    <hyperlink ref="H2" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="301" verticalDpi="300" r:id="rId33"/>
-  <drawing r:id="rId34"/>
+  <pageSetup orientation="portrait" horizontalDpi="301" verticalDpi="300" r:id="rId34"/>
   <legacyDrawing r:id="rId35"/>
   <tableParts count="1">
     <tablePart r:id="rId36"/>
